--- a/DC-SCAN/Interaction_and_binding energies/WATER27.xlsx
+++ b/DC-SCAN/Interaction_and_binding energies/WATER27.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data@QW/Research/Postdoc/Data/DC-SCAN aq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quantum_winger/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F63E1D5A-459F-7F4E-B418-4227211D4BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00076920-7A51-214F-B91A-C52694DA6663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14680" xr2:uid="{1E5D385A-B464-3444-BE73-E5598C88D626}"/>
   </bookViews>
@@ -40,27 +40,15 @@
     <t>CCSD(T)/CBS</t>
   </si>
   <si>
-    <t>SCAN(DC)</t>
-  </si>
-  <si>
     <t>SCAN</t>
   </si>
   <si>
-    <t>SCAN(DC)-D3</t>
-  </si>
-  <si>
     <t>SCAN-D3</t>
   </si>
   <si>
-    <t>E_SCAN(DC)</t>
-  </si>
-  <si>
     <t>E_SCAN</t>
   </si>
   <si>
-    <t>E_SCAN(DC)-D3</t>
-  </si>
-  <si>
     <t>E_SCAN-D3</t>
   </si>
   <si>
@@ -143,6 +131,18 @@
   </si>
   <si>
     <t>H3OpH2O6OHm</t>
+  </si>
+  <si>
+    <t>DC-SCAN</t>
+  </si>
+  <si>
+    <t>DC-SCAN-D3</t>
+  </si>
+  <si>
+    <t>E_DC-SCAN</t>
+  </si>
+  <si>
+    <t>E_DC-SCAN-D3</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,30 +514,30 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>-4.9740000000000002</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>-15.708</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>-27.353000000000002</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>-35.878999999999998</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>-45.988</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>-45.732999999999997</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>-45.292000000000002</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>-44.295999999999999</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>-72.489999999999995</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>-72.453999999999994</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>-197.804</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>-207.53399999999999</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>-207.76300000000001</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>-209.08099999999999</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>-33.738</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>-57.113999999999997</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>-76.754999999999995</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>-117.68300000000001</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>-114.819</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>-26.687000000000001</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>-48.688000000000002</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>-67.525000000000006</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>-84.350999999999999</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>-85.015000000000001</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>-100.782</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>-115.672</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>-29.605</v>
